--- a/DATOS/Divorcios2019.xlsx
+++ b/DATOS/Divorcios2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ineedso\Desktop\Estadisticas Vitalales 2019\BASES DE DATOS REVISADAS 2019\Divorcios_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\Desktop\PROYECTO\Proyecto-AnalisisExploratorioClustering-MineriaDeDatos\DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103955C-1649-4709-89FC-8EB3FCAEF217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="714"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" tabRatio="714" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido" sheetId="15" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>20-24</t>
   </si>
@@ -265,16 +266,10 @@
     <t>Peten</t>
   </si>
   <si>
-    <t>Edad del esposo</t>
-  </si>
-  <si>
     <t>Divorcios por mes de ocurrencia, según día de ocurrencia, año 2019</t>
   </si>
   <si>
     <t>Divorcios por mes de registro, según departamento de registro, año 2019</t>
-  </si>
-  <si>
-    <t>Divorcios por grupos de edad del esposo, según grupos de edad de la esposa, al momento de la sentencia, año 2019</t>
   </si>
   <si>
     <t>Sacatepéquez</t>
@@ -322,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -517,7 +512,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -613,9 +608,6 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -642,7 +634,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,87 +650,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>300834</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="1 CuadroTexto">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10944225" y="0"/>
-          <a:ext cx="710409" cy="257174"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Regresar</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -819,7 +730,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -900,7 +811,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -981,7 +892,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1138,6 +1049,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1173,6 +1101,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1348,11 +1293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1404,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -1434,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -1469,11 +1414,11 @@
     <mergeCell ref="B6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3:I3" location="'Grupos edad hombre y mujer'!A1" display="Divorcios por grupos de edad del esposo, según grupos de edad de la esposa, al momento de la sentencia"/>
-    <hyperlink ref="B4:I4" location="'Pueblo del hombre y mujer'!A1" display="Divorcios por pueblo de pertenencia del hombre, según pueblo de pertenencia de la mujer"/>
-    <hyperlink ref="B5:I5" location="'Mes de registro y departamento'!A1" display="Divorcios por mes registro, según departamento de registro"/>
-    <hyperlink ref="B7:I7" location="'Mes ocurrencia y día'!A1" display="Divorcios por mes de ocurrencia, según día de ocurrencia"/>
-    <hyperlink ref="B6:I6" location="'Ocupaciones de mujer y hombre'!A1" display="Divorcios por grandes grupos ocupacionales de la mujer, según grandes grupos ocupacionales del hombre"/>
+    <hyperlink ref="B3:I3" location="'Grupos edad hombre y mujer'!A1" display="Divorcios por grupos de edad del esposo, según grupos de edad de la esposa, al momento de la sentencia" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4:I4" location="'Pueblo del hombre y mujer'!A1" display="Divorcios por pueblo de pertenencia del hombre, según pueblo de pertenencia de la mujer" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5:I5" location="'Mes de registro y departamento'!A1" display="Divorcios por mes registro, según departamento de registro" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7:I7" location="'Mes ocurrencia y día'!A1" display="Divorcios por mes de ocurrencia, según día de ocurrencia" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6:I6" location="'Ocupaciones de mujer y hombre'!A1" display="Divorcios por grandes grupos ocupacionales de la mujer, según grandes grupos ocupacionales del hombre" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1481,11 +1426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1496,333 +1441,381 @@
     <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="19">
+        <v>8203</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>259</v>
+      </c>
+      <c r="E2" s="19">
+        <v>965</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1106</v>
+      </c>
+      <c r="G2" s="19">
+        <v>825</v>
+      </c>
+      <c r="H2" s="19">
+        <v>547</v>
+      </c>
+      <c r="I2" s="19">
+        <v>284</v>
+      </c>
+      <c r="J2" s="19">
+        <v>196</v>
+      </c>
+      <c r="K2" s="19">
+        <v>114</v>
+      </c>
+      <c r="L2" s="19">
+        <v>125</v>
+      </c>
+      <c r="M2" s="19">
+        <v>3781</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="A3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="18">
+        <v>39</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>17</v>
+      </c>
+      <c r="E3" s="18">
+        <v>16</v>
+      </c>
+      <c r="F3" s="18">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18">
+        <v>633</v>
+      </c>
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="D4" s="18">
+        <v>172</v>
+      </c>
+      <c r="E4" s="18">
+        <v>299</v>
+      </c>
+      <c r="F4" s="18">
+        <v>109</v>
+      </c>
+      <c r="G4" s="18">
+        <v>35</v>
+      </c>
+      <c r="H4" s="18">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18">
         <v>4</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="19">
-        <v>8203</v>
-      </c>
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19">
-        <v>259</v>
-      </c>
-      <c r="E4" s="19">
-        <v>965</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1106</v>
-      </c>
-      <c r="G4" s="19">
-        <v>825</v>
-      </c>
-      <c r="H4" s="19">
-        <v>547</v>
-      </c>
-      <c r="I4" s="19">
-        <v>284</v>
-      </c>
-      <c r="J4" s="19">
-        <v>196</v>
-      </c>
-      <c r="K4" s="19">
-        <v>114</v>
-      </c>
-      <c r="L4" s="19">
-        <v>125</v>
-      </c>
-      <c r="M4" s="19">
-        <v>3781</v>
+      <c r="J4" s="18">
+        <v>4</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B5" s="18">
-        <v>39</v>
+        <v>1149</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
       </c>
       <c r="D5" s="18">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E5" s="18">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="F5" s="18">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="G5" s="18">
+        <v>127</v>
+      </c>
+      <c r="H5" s="18">
+        <v>31</v>
+      </c>
+      <c r="I5" s="18">
+        <v>15</v>
+      </c>
+      <c r="J5" s="18">
+        <v>6</v>
+      </c>
+      <c r="K5" s="18">
+        <v>3</v>
+      </c>
+      <c r="L5" s="18">
         <v>2</v>
       </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
       <c r="M5" s="18">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="18">
-        <v>633</v>
+        <v>1029</v>
       </c>
       <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18">
+        <v>123</v>
+      </c>
+      <c r="F6" s="18">
+        <v>439</v>
+      </c>
+      <c r="G6" s="18">
+        <v>299</v>
+      </c>
+      <c r="H6" s="18">
+        <v>92</v>
+      </c>
+      <c r="I6" s="18">
+        <v>23</v>
+      </c>
+      <c r="J6" s="18">
+        <v>10</v>
+      </c>
+      <c r="K6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
-        <v>172</v>
-      </c>
-      <c r="E6" s="18">
-        <v>299</v>
-      </c>
-      <c r="F6" s="18">
-        <v>109</v>
-      </c>
-      <c r="G6" s="18">
-        <v>35</v>
-      </c>
-      <c r="H6" s="18">
-        <v>9</v>
-      </c>
-      <c r="I6" s="18">
-        <v>4</v>
-      </c>
-      <c r="J6" s="18">
-        <v>4</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
       <c r="L6" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="18">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="18">
-        <v>1149</v>
+        <v>701</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
       </c>
       <c r="D7" s="18">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E7" s="18">
-        <v>490</v>
+        <v>26</v>
       </c>
       <c r="F7" s="18">
-        <v>412</v>
+        <v>93</v>
       </c>
       <c r="G7" s="18">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="H7" s="18">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="I7" s="18">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J7" s="18">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K7" s="18">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L7" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M7" s="18">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="18">
-        <v>1029</v>
+        <v>395</v>
       </c>
       <c r="C8" s="18">
         <v>0</v>
       </c>
       <c r="D8" s="18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="F8" s="18">
-        <v>439</v>
+        <v>24</v>
       </c>
       <c r="G8" s="18">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="H8" s="18">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="I8" s="18">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J8" s="18">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K8" s="18">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L8" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M8" s="18">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="18">
-        <v>701</v>
+        <v>243</v>
       </c>
       <c r="C9" s="18">
         <v>0</v>
       </c>
       <c r="D9" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F9" s="18">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="G9" s="18">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="H9" s="18">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="I9" s="18">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J9" s="18">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K9" s="18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L9" s="18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M9" s="18">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="18">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="C10" s="18">
         <v>0</v>
@@ -1831,39 +1824,39 @@
         <v>0</v>
       </c>
       <c r="E10" s="18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G10" s="18">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H10" s="18">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="I10" s="18">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="J10" s="18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="18">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L10" s="18">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M10" s="18">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="18">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="C11" s="18">
         <v>0</v>
@@ -1872,39 +1865,39 @@
         <v>0</v>
       </c>
       <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
         <v>2</v>
       </c>
-      <c r="F11" s="18">
-        <v>4</v>
-      </c>
-      <c r="G11" s="18">
-        <v>9</v>
-      </c>
-      <c r="H11" s="18">
-        <v>39</v>
-      </c>
       <c r="I11" s="18">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="J11" s="18">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="K11" s="18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L11" s="18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="18">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B12" s="18">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="C12" s="18">
         <v>0</v>
@@ -1919,33 +1912,33 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
         <v>2</v>
       </c>
-      <c r="H12" s="18">
-        <v>3</v>
-      </c>
-      <c r="I12" s="18">
-        <v>14</v>
-      </c>
-      <c r="J12" s="18">
-        <v>33</v>
-      </c>
       <c r="K12" s="18">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L12" s="18">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M12" s="18">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B13" s="18">
-        <v>69</v>
+        <v>3792</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
@@ -1954,122 +1947,34 @@
         <v>0</v>
       </c>
       <c r="E13" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G13" s="18">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H13" s="18">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I13" s="18">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J13" s="18">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="K13" s="18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L13" s="18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M13" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="18">
-        <v>44</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
-        <v>2</v>
-      </c>
-      <c r="K14" s="18">
-        <v>2</v>
-      </c>
-      <c r="L14" s="18">
-        <v>27</v>
-      </c>
-      <c r="M14" s="18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="18">
-        <v>3792</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18">
-        <v>20</v>
-      </c>
-      <c r="G15" s="18">
-        <v>36</v>
-      </c>
-      <c r="H15" s="18">
-        <v>47</v>
-      </c>
-      <c r="I15" s="18">
-        <v>38</v>
-      </c>
-      <c r="J15" s="18">
-        <v>32</v>
-      </c>
-      <c r="K15" s="18">
-        <v>18</v>
-      </c>
-      <c r="L15" s="18">
-        <v>17</v>
-      </c>
-      <c r="M15" s="18">
         <v>3582</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:M2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.3779527559055118" right="0.59055118110236227" top="0.98425196850393704" bottom="0.78740157480314965" header="0.59055118110236227" footer="0.78740157480314965"/>
@@ -2078,13 +1983,12 @@
     <oddHeader>&amp;R&amp;"Arial,Negrita"Instituto Nacional de Estadística, Guatemala</oddHeader>
     <oddFooter>&amp;CEstadísticas Vitales Pág. &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2099,32 +2003,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="A1" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
@@ -2354,7 +2258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2370,7 +2274,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2564,7 +2468,7 @@
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="11">
         <v>185</v>
@@ -2740,7 +2644,7 @@
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="11">
         <v>104</v>
@@ -2784,7 +2688,7 @@
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="11">
         <v>128</v>
@@ -2872,7 +2776,7 @@
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="11">
         <v>195</v>
@@ -3460,7 +3364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3476,7 +3380,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3493,27 +3397,27 @@
       <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="A2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="30" t="s">
         <v>33</v>
       </c>
@@ -4139,7 +4043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4156,22 +4060,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">

--- a/DATOS/Divorcios2019.xlsx
+++ b/DATOS/Divorcios2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\Desktop\PROYECTO\Proyecto-AnalisisExploratorioClustering-MineriaDeDatos\DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103955C-1649-4709-89FC-8EB3FCAEF217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382364A6-4F2E-4ED7-A903-87157DA48C2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" tabRatio="714" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" tabRatio="714" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Mes ocurrencia y día" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Mes de registro y departamento'!$A$1:$N$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Mes de registro y departamento'!$A$1:$N$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Mes ocurrencia y día'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Pueblo del hombre y mujer'!$A$1:$E$7</definedName>
   </definedNames>
@@ -269,9 +269,6 @@
     <t>Divorcios por mes de ocurrencia, según día de ocurrencia, año 2019</t>
   </si>
   <si>
-    <t>Divorcios por mes de registro, según departamento de registro, año 2019</t>
-  </si>
-  <si>
     <t>Sacatepéquez</t>
   </si>
   <si>
@@ -284,12 +281,6 @@
     <t>Suchitepéquez</t>
   </si>
   <si>
-    <t>18-19</t>
-  </si>
-  <si>
-    <t>18 - 19</t>
-  </si>
-  <si>
     <t>Pueblo de pertenencia del esposo</t>
   </si>
   <si>
@@ -312,6 +303,15 @@
   </si>
   <si>
     <t>Divorcios por grupos ocupacionales de la esposa, según grupos ocupacionales del esposo</t>
+  </si>
+  <si>
+    <t>Menos de 15</t>
+  </si>
+  <si>
+    <t>15 - 19</t>
+  </si>
+  <si>
+    <t>15-19</t>
   </si>
 </sst>
 </file>
@@ -602,12 +602,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,6 +612,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,7 +742,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1349,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -1379,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -1427,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1449,7 +1449,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
@@ -1524,26 +1524,26 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>85</v>
+      <c r="A3" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="B3" s="18">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C3" s="18">
         <v>0</v>
       </c>
       <c r="D3" s="18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E3" s="18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F3" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="18">
         <v>0</v>
@@ -1566,34 +1566,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B4" s="18">
-        <v>633</v>
+        <v>39</v>
       </c>
       <c r="C4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="18">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="E4" s="18">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="F4" s="18">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="G4" s="18">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="H4" s="18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" s="18">
         <v>0</v>
@@ -1607,174 +1607,174 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18">
+        <v>633</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>172</v>
+      </c>
+      <c r="E5" s="18">
+        <v>299</v>
+      </c>
+      <c r="F5" s="18">
+        <v>109</v>
+      </c>
+      <c r="G5" s="18">
+        <v>35</v>
+      </c>
+      <c r="H5" s="18">
         <v>9</v>
       </c>
-      <c r="B5" s="18">
-        <v>1149</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18">
-        <v>54</v>
-      </c>
-      <c r="E5" s="18">
-        <v>490</v>
-      </c>
-      <c r="F5" s="18">
-        <v>412</v>
-      </c>
-      <c r="G5" s="18">
-        <v>127</v>
-      </c>
-      <c r="H5" s="18">
-        <v>31</v>
-      </c>
       <c r="I5" s="18">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J5" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="18">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="18">
-        <v>1029</v>
+        <v>1149</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
       </c>
       <c r="D6" s="18">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E6" s="18">
-        <v>123</v>
+        <v>490</v>
       </c>
       <c r="F6" s="18">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="G6" s="18">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="H6" s="18">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I6" s="18">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J6" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K6" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" s="18">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1029</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
         <v>11</v>
       </c>
-      <c r="B7" s="18">
-        <v>701</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="E7" s="18">
+        <v>123</v>
+      </c>
+      <c r="F7" s="18">
+        <v>439</v>
+      </c>
+      <c r="G7" s="18">
+        <v>299</v>
+      </c>
+      <c r="H7" s="18">
+        <v>92</v>
+      </c>
+      <c r="I7" s="18">
+        <v>23</v>
+      </c>
+      <c r="J7" s="18">
+        <v>10</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
         <v>5</v>
       </c>
-      <c r="E7" s="18">
+      <c r="M7" s="18">
         <v>26</v>
-      </c>
-      <c r="F7" s="18">
-        <v>93</v>
-      </c>
-      <c r="G7" s="18">
-        <v>257</v>
-      </c>
-      <c r="H7" s="18">
-        <v>176</v>
-      </c>
-      <c r="I7" s="18">
-        <v>47</v>
-      </c>
-      <c r="J7" s="18">
-        <v>24</v>
-      </c>
-      <c r="K7" s="18">
-        <v>13</v>
-      </c>
-      <c r="L7" s="18">
-        <v>7</v>
-      </c>
-      <c r="M7" s="18">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="18">
-        <v>395</v>
+        <v>701</v>
       </c>
       <c r="C8" s="18">
         <v>0</v>
       </c>
       <c r="D8" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="18">
+        <v>26</v>
+      </c>
+      <c r="F8" s="18">
+        <v>93</v>
+      </c>
+      <c r="G8" s="18">
+        <v>257</v>
+      </c>
+      <c r="H8" s="18">
+        <v>176</v>
+      </c>
+      <c r="I8" s="18">
+        <v>47</v>
+      </c>
+      <c r="J8" s="18">
+        <v>24</v>
+      </c>
+      <c r="K8" s="18">
+        <v>13</v>
+      </c>
+      <c r="L8" s="18">
         <v>7</v>
       </c>
-      <c r="F8" s="18">
-        <v>24</v>
-      </c>
-      <c r="G8" s="18">
-        <v>57</v>
-      </c>
-      <c r="H8" s="18">
-        <v>147</v>
-      </c>
-      <c r="I8" s="18">
-        <v>63</v>
-      </c>
-      <c r="J8" s="18">
-        <v>34</v>
-      </c>
-      <c r="K8" s="18">
-        <v>21</v>
-      </c>
-      <c r="L8" s="18">
-        <v>8</v>
-      </c>
       <c r="M8" s="18">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="18">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="C9" s="18">
         <v>0</v>
@@ -1783,39 +1783,39 @@
         <v>0</v>
       </c>
       <c r="E9" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="18">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G9" s="18">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="H9" s="18">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="I9" s="18">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J9" s="18">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K9" s="18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L9" s="18">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M9" s="18">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="18">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="C10" s="18">
         <v>0</v>
@@ -1824,39 +1824,39 @@
         <v>0</v>
       </c>
       <c r="E10" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H10" s="18">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I10" s="18">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="J10" s="18">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K10" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L10" s="18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M10" s="18">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="18">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C11" s="18">
         <v>0</v>
@@ -1868,36 +1868,36 @@
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J11" s="18">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K11" s="18">
+        <v>16</v>
+      </c>
+      <c r="L11" s="18">
         <v>23</v>
       </c>
-      <c r="L11" s="18">
-        <v>19</v>
-      </c>
       <c r="M11" s="18">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B12" s="18">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C12" s="18">
         <v>0</v>
@@ -1909,68 +1909,109 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K12" s="18">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L12" s="18">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M12" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="18">
+        <v>44</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>2</v>
+      </c>
+      <c r="K13" s="18">
+        <v>2</v>
+      </c>
+      <c r="L13" s="18">
+        <v>27</v>
+      </c>
+      <c r="M13" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B14" s="18">
         <v>3792</v>
       </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
         <v>2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F14" s="18">
         <v>20</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G14" s="18">
         <v>36</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H14" s="18">
         <v>47</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>38</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J14" s="18">
         <v>32</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K14" s="18">
         <v>18</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L14" s="18">
         <v>17</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M14" s="18">
         <v>3582</v>
       </c>
     </row>
@@ -2003,36 +2044,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="A1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="C2" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="9" t="s">
         <v>68</v>
       </c>
@@ -2259,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2272,374 +2313,400 @@
     <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B2" s="17">
         <v>8203</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C2" s="17">
         <v>667</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D2" s="17">
         <v>539</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E2" s="17">
         <v>569</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F2" s="17">
         <v>481</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G2" s="17">
         <v>760</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H2" s="17">
         <v>775</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I2" s="17">
         <v>765</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J2" s="17">
         <v>798</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K2" s="17">
         <v>743</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L2" s="17">
         <v>750</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M2" s="17">
         <v>777</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N2" s="17">
         <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3687</v>
+      </c>
+      <c r="C3" s="11">
+        <v>307</v>
+      </c>
+      <c r="D3" s="11">
+        <v>197</v>
+      </c>
+      <c r="E3" s="11">
+        <v>244</v>
+      </c>
+      <c r="F3" s="11">
+        <v>240</v>
+      </c>
+      <c r="G3" s="11">
+        <v>374</v>
+      </c>
+      <c r="H3" s="11">
+        <v>410</v>
+      </c>
+      <c r="I3" s="11">
+        <v>366</v>
+      </c>
+      <c r="J3" s="11">
+        <v>346</v>
+      </c>
+      <c r="K3" s="11">
+        <v>351</v>
+      </c>
+      <c r="L3" s="11">
+        <v>293</v>
+      </c>
+      <c r="M3" s="11">
+        <v>342</v>
+      </c>
+      <c r="N3" s="11">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="11">
-        <v>3687</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="D4" s="11">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="E4" s="11">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="F4" s="11">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="G4" s="11">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="H4" s="11">
-        <v>410</v>
+        <v>18</v>
       </c>
       <c r="I4" s="11">
-        <v>366</v>
+        <v>11</v>
       </c>
       <c r="J4" s="11">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="K4" s="11">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="L4" s="11">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="M4" s="11">
-        <v>342</v>
+        <v>5</v>
       </c>
       <c r="N4" s="11">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B5" s="11">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C5" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11">
+        <v>14</v>
+      </c>
+      <c r="H5" s="11">
         <v>15</v>
       </c>
-      <c r="F5" s="11">
-        <v>13</v>
-      </c>
-      <c r="G5" s="11">
-        <v>7</v>
-      </c>
-      <c r="H5" s="11">
-        <v>18</v>
-      </c>
       <c r="I5" s="11">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J5" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" s="11">
         <v>15</v>
       </c>
       <c r="L5" s="11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M5" s="11">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N5" s="11">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B6" s="11">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C6" s="11">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
+      <c r="G6" s="11">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11">
+        <v>11</v>
+      </c>
+      <c r="I6" s="11">
+        <v>7</v>
+      </c>
+      <c r="J6" s="11">
+        <v>22</v>
+      </c>
+      <c r="K6" s="11">
         <v>14</v>
       </c>
-      <c r="E6" s="11">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11">
-        <v>10</v>
-      </c>
-      <c r="G6" s="11">
-        <v>14</v>
-      </c>
-      <c r="H6" s="11">
-        <v>15</v>
-      </c>
-      <c r="I6" s="11">
-        <v>28</v>
-      </c>
-      <c r="J6" s="11">
-        <v>14</v>
-      </c>
-      <c r="K6" s="11">
-        <v>15</v>
-      </c>
       <c r="L6" s="11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M6" s="11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N6" s="11">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11">
+        <v>335</v>
+      </c>
+      <c r="C7" s="11">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11">
         <v>18</v>
       </c>
-      <c r="B7" s="11">
-        <v>171</v>
-      </c>
-      <c r="C7" s="11">
-        <v>8</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="F7" s="11">
+        <v>18</v>
+      </c>
+      <c r="G7" s="11">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11">
+        <v>31</v>
+      </c>
+      <c r="I7" s="11">
         <v>15</v>
       </c>
-      <c r="E7" s="11">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11">
-        <v>14</v>
-      </c>
-      <c r="G7" s="11">
-        <v>17</v>
-      </c>
-      <c r="H7" s="11">
-        <v>11</v>
-      </c>
-      <c r="I7" s="11">
-        <v>7</v>
-      </c>
       <c r="J7" s="11">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L7" s="11">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M7" s="11">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N7" s="11">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11">
-        <v>335</v>
+        <v>189</v>
       </c>
       <c r="C8" s="11">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11">
+        <v>17</v>
+      </c>
+      <c r="J8" s="11">
+        <v>17</v>
+      </c>
+      <c r="K8" s="11">
+        <v>13</v>
+      </c>
+      <c r="L8" s="11">
         <v>20</v>
       </c>
-      <c r="D8" s="11">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11">
-        <v>18</v>
-      </c>
-      <c r="G8" s="11">
-        <v>28</v>
-      </c>
-      <c r="H8" s="11">
-        <v>31</v>
-      </c>
-      <c r="I8" s="11">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11">
-        <v>49</v>
-      </c>
-      <c r="K8" s="11">
-        <v>31</v>
-      </c>
-      <c r="L8" s="11">
-        <v>36</v>
-      </c>
       <c r="M8" s="11">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N8" s="11">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B9" s="11">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="C9" s="11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D9" s="11">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E9" s="11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F9" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="11">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H9" s="11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J9" s="11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" s="11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L9" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M9" s="11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N9" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2647,389 +2714,389 @@
         <v>81</v>
       </c>
       <c r="B10" s="11">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E10" s="11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" s="11">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11">
+        <v>20</v>
+      </c>
+      <c r="I10" s="11">
+        <v>13</v>
+      </c>
+      <c r="J10" s="11">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11">
+        <v>11</v>
+      </c>
+      <c r="L10" s="11">
+        <v>17</v>
+      </c>
+      <c r="M10" s="11">
         <v>9</v>
       </c>
-      <c r="G10" s="11">
-        <v>15</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>10</v>
-      </c>
-      <c r="J10" s="11">
-        <v>15</v>
-      </c>
-      <c r="K10" s="11">
-        <v>9</v>
-      </c>
-      <c r="L10" s="11">
-        <v>10</v>
-      </c>
-      <c r="M10" s="11">
-        <v>10</v>
-      </c>
       <c r="N10" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B11" s="11">
-        <v>128</v>
+        <v>739</v>
       </c>
       <c r="C11" s="11">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D11" s="11">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E11" s="11">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F11" s="11">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G11" s="11">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="H11" s="11">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I11" s="11">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="J11" s="11">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="K11" s="11">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L11" s="11">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="M11" s="11">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="N11" s="11">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B12" s="11">
-        <v>739</v>
+        <v>195</v>
       </c>
       <c r="C12" s="11">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D12" s="11">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E12" s="11">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F12" s="11">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G12" s="11">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H12" s="11">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I12" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="J12" s="11">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="K12" s="11">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="L12" s="11">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M12" s="11">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="N12" s="11">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B13" s="11">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C13" s="11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11">
         <v>7</v>
       </c>
       <c r="E13" s="11">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11">
+        <v>7</v>
+      </c>
+      <c r="G13" s="11">
+        <v>13</v>
+      </c>
+      <c r="H13" s="11">
+        <v>14</v>
+      </c>
+      <c r="I13" s="11">
+        <v>25</v>
+      </c>
+      <c r="J13" s="11">
+        <v>24</v>
+      </c>
+      <c r="K13" s="11">
+        <v>22</v>
+      </c>
+      <c r="L13" s="11">
+        <v>20</v>
+      </c>
+      <c r="M13" s="11">
+        <v>21</v>
+      </c>
+      <c r="N13" s="11">
         <v>12</v>
-      </c>
-      <c r="F13" s="11">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11">
-        <v>19</v>
-      </c>
-      <c r="H13" s="11">
-        <v>20</v>
-      </c>
-      <c r="I13" s="11">
-        <v>15</v>
-      </c>
-      <c r="J13" s="11">
-        <v>13</v>
-      </c>
-      <c r="K13" s="11">
-        <v>15</v>
-      </c>
-      <c r="L13" s="11">
-        <v>29</v>
-      </c>
-      <c r="M13" s="11">
-        <v>25</v>
-      </c>
-      <c r="N13" s="11">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="11">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="C14" s="11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" s="11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E14" s="11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F14" s="11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G14" s="11">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H14" s="11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="11">
+        <v>26</v>
+      </c>
+      <c r="K14" s="11">
+        <v>15</v>
+      </c>
+      <c r="L14" s="11">
+        <v>19</v>
+      </c>
+      <c r="M14" s="11">
+        <v>35</v>
+      </c>
+      <c r="N14" s="11">
         <v>24</v>
-      </c>
-      <c r="K14" s="11">
-        <v>22</v>
-      </c>
-      <c r="L14" s="11">
-        <v>20</v>
-      </c>
-      <c r="M14" s="11">
-        <v>21</v>
-      </c>
-      <c r="N14" s="11">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="11">
+        <v>229</v>
+      </c>
+      <c r="C15" s="11">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11">
         <v>23</v>
       </c>
-      <c r="B15" s="11">
-        <v>267</v>
-      </c>
-      <c r="C15" s="11">
-        <v>20</v>
-      </c>
-      <c r="D15" s="11">
-        <v>19</v>
-      </c>
       <c r="E15" s="11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="11">
+        <v>12</v>
+      </c>
+      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11">
         <v>13</v>
       </c>
-      <c r="G15" s="11">
-        <v>25</v>
-      </c>
-      <c r="H15" s="11">
-        <v>31</v>
-      </c>
       <c r="I15" s="11">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J15" s="11">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K15" s="11">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L15" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="11">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N15" s="11">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B16" s="11">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="C16" s="11">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11">
+        <v>14</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>8</v>
+      </c>
+      <c r="H16" s="11">
         <v>21</v>
       </c>
-      <c r="D16" s="11">
-        <v>23</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="I16" s="11">
+        <v>19</v>
+      </c>
+      <c r="J16" s="11">
+        <v>20</v>
+      </c>
+      <c r="K16" s="11">
+        <v>15</v>
+      </c>
+      <c r="L16" s="11">
+        <v>28</v>
+      </c>
+      <c r="M16" s="11">
         <v>11</v>
       </c>
-      <c r="F16" s="11">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11">
-        <v>18</v>
-      </c>
-      <c r="H16" s="11">
-        <v>13</v>
-      </c>
-      <c r="I16" s="11">
-        <v>18</v>
-      </c>
-      <c r="J16" s="11">
-        <v>18</v>
-      </c>
-      <c r="K16" s="11">
-        <v>29</v>
-      </c>
-      <c r="L16" s="11">
-        <v>23</v>
-      </c>
-      <c r="M16" s="11">
-        <v>27</v>
-      </c>
       <c r="N16" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B17" s="11">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="C17" s="11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17" s="11">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E17" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" s="11">
+        <v>16</v>
+      </c>
+      <c r="H17" s="11">
+        <v>13</v>
+      </c>
+      <c r="I17" s="11">
+        <v>5</v>
+      </c>
+      <c r="J17" s="11">
         <v>8</v>
       </c>
-      <c r="H17" s="11">
-        <v>21</v>
-      </c>
-      <c r="I17" s="11">
-        <v>19</v>
-      </c>
-      <c r="J17" s="11">
-        <v>20</v>
-      </c>
       <c r="K17" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L17" s="11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="M17" s="11">
+        <v>13</v>
+      </c>
+      <c r="N17" s="11">
         <v>11</v>
-      </c>
-      <c r="N17" s="11">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C18" s="11">
         <v>8</v>
       </c>
       <c r="D18" s="11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" s="11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F18" s="11">
         <v>7</v>
       </c>
       <c r="G18" s="11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H18" s="11">
+        <v>8</v>
+      </c>
+      <c r="I18" s="11">
+        <v>12</v>
+      </c>
+      <c r="J18" s="11">
         <v>13</v>
       </c>
-      <c r="I18" s="11">
-        <v>5</v>
-      </c>
-      <c r="J18" s="11">
-        <v>8</v>
-      </c>
       <c r="K18" s="11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L18" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18" s="11">
         <v>13</v>
@@ -3040,131 +3107,131 @@
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B19" s="11">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="C19" s="11">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D19" s="11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" s="11">
+        <v>20</v>
+      </c>
+      <c r="F19" s="11">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11">
+        <v>23</v>
+      </c>
+      <c r="H19" s="11">
         <v>10</v>
       </c>
-      <c r="F19" s="11">
-        <v>7</v>
-      </c>
-      <c r="G19" s="11">
-        <v>10</v>
-      </c>
-      <c r="H19" s="11">
-        <v>8</v>
-      </c>
       <c r="I19" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K19" s="11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L19" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M19" s="11">
         <v>13</v>
       </c>
       <c r="N19" s="11">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B20" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C20" s="11">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11">
+        <v>17</v>
+      </c>
+      <c r="E20" s="11">
+        <v>18</v>
+      </c>
+      <c r="F20" s="11">
+        <v>21</v>
+      </c>
+      <c r="G20" s="11">
+        <v>12</v>
+      </c>
+      <c r="H20" s="11">
+        <v>8</v>
+      </c>
+      <c r="I20" s="11">
+        <v>26</v>
+      </c>
+      <c r="J20" s="11">
         <v>24</v>
-      </c>
-      <c r="D20" s="11">
-        <v>19</v>
-      </c>
-      <c r="E20" s="11">
-        <v>20</v>
-      </c>
-      <c r="F20" s="11">
-        <v>9</v>
-      </c>
-      <c r="G20" s="11">
-        <v>23</v>
-      </c>
-      <c r="H20" s="11">
-        <v>10</v>
-      </c>
-      <c r="I20" s="11">
-        <v>13</v>
-      </c>
-      <c r="J20" s="11">
-        <v>19</v>
       </c>
       <c r="K20" s="11">
         <v>20</v>
       </c>
       <c r="L20" s="11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M20" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N20" s="11">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="11">
+        <v>202</v>
+      </c>
+      <c r="C21" s="11">
+        <v>12</v>
+      </c>
+      <c r="D21" s="11">
+        <v>14</v>
+      </c>
+      <c r="E21" s="11">
         <v>27</v>
       </c>
-      <c r="B21" s="11">
-        <v>208</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="F21" s="11">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="11">
-        <v>17</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="H21" s="11">
         <v>18</v>
       </c>
-      <c r="F21" s="11">
+      <c r="I21" s="11">
+        <v>10</v>
+      </c>
+      <c r="J21" s="11">
+        <v>19</v>
+      </c>
+      <c r="K21" s="11">
+        <v>15</v>
+      </c>
+      <c r="L21" s="11">
         <v>21</v>
       </c>
-      <c r="G21" s="11">
-        <v>12</v>
-      </c>
-      <c r="H21" s="11">
-        <v>8</v>
-      </c>
-      <c r="I21" s="11">
-        <v>26</v>
-      </c>
-      <c r="J21" s="11">
-        <v>24</v>
-      </c>
-      <c r="K21" s="11">
-        <v>20</v>
-      </c>
-      <c r="L21" s="11">
-        <v>17</v>
-      </c>
       <c r="M21" s="11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N21" s="11">
         <v>18</v>
@@ -3172,184 +3239,137 @@
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="11">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C22" s="11">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11">
         <v>12</v>
       </c>
-      <c r="D22" s="11">
+      <c r="F22" s="11">
+        <v>5</v>
+      </c>
+      <c r="G22" s="11">
+        <v>7</v>
+      </c>
+      <c r="H22" s="11">
         <v>14</v>
       </c>
-      <c r="E22" s="11">
-        <v>27</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="I22" s="11">
         <v>12</v>
       </c>
-      <c r="G22" s="11">
-        <v>15</v>
-      </c>
-      <c r="H22" s="11">
-        <v>18</v>
-      </c>
-      <c r="I22" s="11">
-        <v>10</v>
-      </c>
       <c r="J22" s="11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K22" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L22" s="11">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M22" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N22" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="11">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="C23" s="11">
+        <v>35</v>
+      </c>
+      <c r="D23" s="11">
+        <v>12</v>
+      </c>
+      <c r="E23" s="11">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11">
         <v>21</v>
       </c>
-      <c r="D23" s="11">
-        <v>11</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="H23" s="11">
         <v>12</v>
       </c>
-      <c r="F23" s="11">
-        <v>5</v>
-      </c>
-      <c r="G23" s="11">
-        <v>7</v>
-      </c>
-      <c r="H23" s="11">
-        <v>14</v>
-      </c>
       <c r="I23" s="11">
+        <v>24</v>
+      </c>
+      <c r="J23" s="11">
+        <v>24</v>
+      </c>
+      <c r="K23" s="11">
         <v>12</v>
       </c>
-      <c r="J23" s="11">
-        <v>17</v>
-      </c>
-      <c r="K23" s="11">
-        <v>16</v>
-      </c>
       <c r="L23" s="11">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M23" s="11">
         <v>14</v>
       </c>
       <c r="N23" s="11">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="11">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C24" s="11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D24" s="11">
+        <v>14</v>
+      </c>
+      <c r="E24" s="11">
         <v>12</v>
       </c>
-      <c r="E24" s="11">
-        <v>17</v>
-      </c>
       <c r="F24" s="11">
+        <v>8</v>
+      </c>
+      <c r="G24" s="11">
+        <v>18</v>
+      </c>
+      <c r="H24" s="11">
+        <v>29</v>
+      </c>
+      <c r="I24" s="11">
+        <v>19</v>
+      </c>
+      <c r="J24" s="11">
+        <v>22</v>
+      </c>
+      <c r="K24" s="11">
+        <v>23</v>
+      </c>
+      <c r="L24" s="11">
         <v>9</v>
       </c>
-      <c r="G24" s="11">
-        <v>21</v>
-      </c>
-      <c r="H24" s="11">
-        <v>12</v>
-      </c>
-      <c r="I24" s="11">
-        <v>24</v>
-      </c>
-      <c r="J24" s="11">
-        <v>24</v>
-      </c>
-      <c r="K24" s="11">
-        <v>12</v>
-      </c>
-      <c r="L24" s="11">
-        <v>24</v>
-      </c>
       <c r="M24" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N24" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="11">
-        <v>198</v>
-      </c>
-      <c r="C25" s="11">
-        <v>15</v>
-      </c>
-      <c r="D25" s="11">
-        <v>14</v>
-      </c>
-      <c r="E25" s="11">
-        <v>12</v>
-      </c>
-      <c r="F25" s="11">
-        <v>8</v>
-      </c>
-      <c r="G25" s="11">
-        <v>18</v>
-      </c>
-      <c r="H25" s="11">
-        <v>29</v>
-      </c>
-      <c r="I25" s="11">
-        <v>19</v>
-      </c>
-      <c r="J25" s="11">
-        <v>22</v>
-      </c>
-      <c r="K25" s="11">
-        <v>23</v>
-      </c>
-      <c r="L25" s="11">
-        <v>9</v>
-      </c>
-      <c r="M25" s="11">
-        <v>13</v>
-      </c>
-      <c r="N25" s="11">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.3779527559055118" right="0.59055118110236227" top="0.98425196850393704" bottom="0.78740157480314965" header="0.59055118110236227" footer="0.78740157480314965"/>
@@ -3379,42 +3399,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="A1" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+        <v>87</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>

--- a/DATOS/Divorcios2019.xlsx
+++ b/DATOS/Divorcios2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\Desktop\PROYECTO\Proyecto-AnalisisExploratorioClustering-MineriaDeDatos\DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382364A6-4F2E-4ED7-A903-87157DA48C2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF2970-2DF9-469D-B826-C24B2930E811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" tabRatio="714" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="1770" windowWidth="21600" windowHeight="11385" tabRatio="714" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido" sheetId="15" r:id="rId1"/>
@@ -260,12 +260,6 @@
     <t>No especificado en otro grupo</t>
   </si>
   <si>
-    <t>Quiche</t>
-  </si>
-  <si>
-    <t>Peten</t>
-  </si>
-  <si>
     <t>Divorcios por mes de ocurrencia, según día de ocurrencia, año 2019</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>15-19</t>
+  </si>
+  <si>
+    <t>Quiché</t>
+  </si>
+  <si>
+    <t>Petén</t>
   </si>
 </sst>
 </file>
@@ -551,9 +551,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1302,107 +1302,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="B4" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1442,43 +1442,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1486,122 +1486,122 @@
       <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>8203</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>259</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>965</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>1106</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>825</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>547</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>284</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="18">
         <v>196</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>114</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>125</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <v>3781</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
+      <c r="A3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="18">
+        <v>90</v>
+      </c>
+      <c r="B4" s="17">
         <v>39</v>
       </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
         <v>17</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>16</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>4</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>2</v>
       </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1609,40 +1609,40 @@
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>633</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>172</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>299</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>109</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>35</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>9</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>4</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>4</v>
       </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1650,40 +1650,40 @@
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>1149</v>
       </c>
-      <c r="C6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
         <v>54</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>490</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>412</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>127</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>31</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>15</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>6</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>3</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <v>2</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>9</v>
       </c>
     </row>
@@ -1691,40 +1691,40 @@
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>1029</v>
       </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
         <v>11</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>123</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>439</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>299</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>92</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>23</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>10</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>1</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>5</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <v>26</v>
       </c>
     </row>
@@ -1732,40 +1732,40 @@
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>701</v>
       </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
         <v>5</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>26</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>93</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>257</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>176</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>47</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>24</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>13</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>7</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <v>53</v>
       </c>
     </row>
@@ -1773,40 +1773,40 @@
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>395</v>
       </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
         <v>7</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>24</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>57</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>147</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>63</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>34</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <v>21</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>8</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>34</v>
       </c>
     </row>
@@ -1814,40 +1814,40 @@
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>243</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
         <v>2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>4</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>9</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>39</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>74</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>44</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <v>17</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>17</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>37</v>
       </c>
     </row>
@@ -1855,40 +1855,40 @@
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>109</v>
       </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
         <v>2</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>3</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>14</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <v>33</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <v>16</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <v>23</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <v>18</v>
       </c>
     </row>
@@ -1896,40 +1896,40 @@
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>69</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>1</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>2</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>6</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>7</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>23</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>19</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>10</v>
       </c>
     </row>
@@ -1937,40 +1937,40 @@
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>44</v>
       </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
         <v>1</v>
       </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
         <v>2</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>2</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <v>27</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <v>12</v>
       </c>
     </row>
@@ -1978,40 +1978,40 @@
       <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>3792</v>
       </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
         <v>2</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>20</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <v>36</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>47</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>38</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>32</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="17">
         <v>18</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
         <v>17</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="17">
         <v>3582</v>
       </c>
     </row>
@@ -2044,78 +2044,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="A1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>8203</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>623</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
         <v>3467</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>70</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>4042</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2361,48 +2361,48 @@
       <c r="A2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>8203</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>667</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>539</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>569</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>481</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>760</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>775</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>765</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>798</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>743</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>750</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>777</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="16">
         <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="11">
@@ -2446,7 +2446,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="43" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="11">
@@ -2490,8 +2490,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>79</v>
+      <c r="A5" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="11">
         <v>185</v>
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="11">
@@ -2578,7 +2578,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="43" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="11">
@@ -2622,7 +2622,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="11">
@@ -2666,8 +2666,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>80</v>
+      <c r="A9" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="11">
         <v>104</v>
@@ -2710,8 +2710,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>81</v>
+      <c r="A10" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="11">
         <v>128</v>
@@ -2754,7 +2754,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="11">
@@ -2798,8 +2798,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>82</v>
+      <c r="A12" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="11">
         <v>195</v>
@@ -2842,7 +2842,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="11">
@@ -2886,7 +2886,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="11">
@@ -2930,7 +2930,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="11">
@@ -2974,8 +2974,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>76</v>
+      <c r="A16" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="B16" s="11">
         <v>188</v>
@@ -3018,7 +3018,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="43" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="11">
@@ -3062,7 +3062,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="11">
@@ -3106,8 +3106,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>77</v>
+      <c r="A19" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="B19" s="11">
         <v>212</v>
@@ -3150,7 +3150,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="11">
@@ -3194,7 +3194,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="11">
@@ -3238,7 +3238,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="11">
@@ -3282,7 +3282,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="11">
@@ -3326,7 +3326,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="43" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="11">
@@ -3399,82 +3399,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="A1" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
+      <c r="A2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="29" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3523,530 +3523,530 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>18</v>
       </c>
-      <c r="C5" s="31">
-        <v>0</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
         <v>2</v>
       </c>
-      <c r="F5" s="31">
-        <v>0</v>
-      </c>
-      <c r="G5" s="31">
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0</v>
-      </c>
-      <c r="K5" s="31">
-        <v>0</v>
-      </c>
-      <c r="L5" s="31">
-        <v>0</v>
-      </c>
-      <c r="M5" s="31">
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+      <c r="K5" s="30">
+        <v>0</v>
+      </c>
+      <c r="L5" s="30">
+        <v>0</v>
+      </c>
+      <c r="M5" s="30">
         <v>15</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>47</v>
       </c>
-      <c r="C6" s="31">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
         <v>3</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>17</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>7</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="31">
-        <v>0</v>
-      </c>
-      <c r="J6" s="31">
-        <v>0</v>
-      </c>
-      <c r="K6" s="31">
-        <v>0</v>
-      </c>
-      <c r="L6" s="31">
-        <v>0</v>
-      </c>
-      <c r="M6" s="31">
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="K6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="30">
+        <v>0</v>
+      </c>
+      <c r="M6" s="30">
         <v>13</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>567</v>
       </c>
-      <c r="C7" s="31">
-        <v>0</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
         <v>14</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>209</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>28</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <v>52</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>10</v>
       </c>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31">
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
         <v>2</v>
       </c>
-      <c r="K7" s="31">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31">
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="30">
         <v>1</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <v>229</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>549</v>
       </c>
-      <c r="C8" s="31">
-        <v>0</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
         <v>2</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>100</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>90</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>122</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <v>18</v>
       </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="31">
-        <v>0</v>
-      </c>
-      <c r="K8" s="31">
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
         <v>1</v>
       </c>
-      <c r="L8" s="31">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31">
+      <c r="L8" s="30">
+        <v>0</v>
+      </c>
+      <c r="M8" s="30">
         <v>197</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>358</v>
       </c>
-      <c r="C9" s="31">
-        <v>0</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
         <v>1</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>44</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>23</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <v>104</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="30">
         <v>10</v>
       </c>
-      <c r="I9" s="31">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31">
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
         <v>1</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="30">
         <v>2</v>
       </c>
-      <c r="L9" s="31">
-        <v>0</v>
-      </c>
-      <c r="M9" s="31">
+      <c r="L9" s="30">
+        <v>0</v>
+      </c>
+      <c r="M9" s="30">
         <v>152</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="30">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>620</v>
       </c>
-      <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
         <v>2</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>70</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>30</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>53</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <v>76</v>
       </c>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="31">
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
         <v>7</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="30">
         <v>2</v>
       </c>
-      <c r="L10" s="31">
-        <v>0</v>
-      </c>
-      <c r="M10" s="31">
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
+      <c r="M10" s="30">
         <v>351</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="30">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>23</v>
       </c>
-      <c r="C11" s="31">
-        <v>0</v>
-      </c>
-      <c r="D11" s="31">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>1</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>1</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>2</v>
       </c>
-      <c r="I11" s="31">
-        <v>0</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0</v>
-      </c>
-      <c r="L11" s="31">
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="30">
+        <v>0</v>
+      </c>
+      <c r="L11" s="30">
         <v>1</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>16</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>539</v>
       </c>
-      <c r="C12" s="31">
-        <v>0</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
         <v>1</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>41</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>28</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>31</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="30">
         <v>20</v>
       </c>
-      <c r="I12" s="31">
-        <v>0</v>
-      </c>
-      <c r="J12" s="31">
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
         <v>18</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="30">
         <v>3</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <v>1</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <v>370</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="30">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>226</v>
       </c>
-      <c r="C13" s="31">
-        <v>0</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
         <v>13</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
         <v>13</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <v>18</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <v>16</v>
       </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0</v>
-      </c>
-      <c r="K13" s="31">
+      <c r="I13" s="30">
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="30">
         <v>3</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <v>1</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <v>144</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="30">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>1052</v>
       </c>
-      <c r="C14" s="31">
-        <v>0</v>
-      </c>
-      <c r="D14" s="31">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
         <v>22</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>18</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <v>12</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>9</v>
       </c>
-      <c r="I14" s="31">
-        <v>0</v>
-      </c>
-      <c r="J14" s="31">
+      <c r="I14" s="30">
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
         <v>6</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="30">
         <v>5</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <v>5</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <v>874</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="30">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="30">
         <v>2558</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>5</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <v>187</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <v>60</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <v>173</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <v>55</v>
       </c>
-      <c r="I15" s="31">
-        <v>0</v>
-      </c>
-      <c r="J15" s="31">
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="30">
         <v>10</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="30">
         <v>10</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="30">
         <v>2</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <v>1951</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="30">
         <v>1646</v>
       </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="C16" s="30">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
         <v>17</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <v>9</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>11</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>8</v>
       </c>
-      <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="31">
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="30">
         <v>1</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="30">
         <v>2</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="30">
         <v>3</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="30">
         <v>106</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="30">
         <v>1489</v>
       </c>
     </row>
@@ -4080,22 +4080,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="A1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -4145,1407 +4145,1407 @@
       <c r="A3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>8203</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>508</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>604</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>889</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>755</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>874</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>753</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>852</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>767</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>620</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="21">
         <v>738</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <v>550</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>233</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>25</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>38</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>45</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>38</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>2</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>3</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>41</v>
       </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
         <v>39</v>
       </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20">
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>263</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>9</v>
       </c>
-      <c r="D5" s="20">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
         <v>44</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>31</v>
       </c>
-      <c r="H5" s="20">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
         <v>33</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>36</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>50</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>27</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>1</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>295</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>42</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>33</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>47</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>52</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>1</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>40</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>29</v>
       </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>339</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>35</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>48</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>61</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>45</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>41</v>
       </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
         <v>35</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>17</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>31</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>310</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>32</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>33</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>34</v>
       </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
         <v>48</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>47</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>33</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>36</v>
       </c>
-      <c r="L8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
         <v>30</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>244</v>
       </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
         <v>34</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>42</v>
       </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
         <v>46</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>24</v>
       </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
         <v>36</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>18</v>
       </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
         <v>27</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>253</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>13</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>28</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>51</v>
       </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
         <v>28</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>40</v>
       </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
         <v>38</v>
       </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
         <v>33</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <v>22</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>295</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>10</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>29</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>32</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>49</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>41</v>
       </c>
-      <c r="H11" s="20">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
         <v>38</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>30</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>1</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>40</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>25</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>248</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>12</v>
       </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <v>43</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>37</v>
       </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
         <v>44</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>30</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>41</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>23</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>1</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>240</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>19</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
         <v>51</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>15</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>31</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>39</v>
       </c>
-      <c r="J13" s="20">
-        <v>0</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
         <v>35</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>33</v>
       </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>339</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>26</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>28</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>60</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>37</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>3</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>46</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>29</v>
       </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="21">
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
         <v>40</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>27</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>31</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>245</v>
       </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
         <v>25</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>35</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>31</v>
       </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
         <v>56</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>44</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <v>6</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>29</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <v>1</v>
       </c>
-      <c r="M15" s="20">
-        <v>0</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>13</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>235</v>
       </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
         <v>29</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>47</v>
       </c>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
         <v>28</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>36</v>
       </c>
-      <c r="I16" s="20">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
         <v>40</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>17</v>
       </c>
-      <c r="L16" s="20">
-        <v>0</v>
-      </c>
-      <c r="M16" s="20">
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
         <v>19</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>306</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>37</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>25</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>46</v>
       </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
         <v>49</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>38</v>
       </c>
-      <c r="I17" s="20">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20">
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
         <v>50</v>
       </c>
-      <c r="K17" s="21">
-        <v>0</v>
-      </c>
-      <c r="L17" s="20">
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
         <v>38</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <v>23</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>302</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>30</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>27</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>32</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>46</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>46</v>
       </c>
-      <c r="H18" s="20">
-        <v>0</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
         <v>47</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="19">
         <v>16</v>
       </c>
-      <c r="K18" s="21">
-        <v>0</v>
-      </c>
-      <c r="L18" s="20">
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19">
         <v>29</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="19">
         <v>29</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>234</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>25</v>
       </c>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0</v>
-      </c>
-      <c r="F19" s="20">
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
         <v>47</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>35</v>
       </c>
-      <c r="H19" s="20">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
         <v>27</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <v>36</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>2</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <v>45</v>
       </c>
-      <c r="M19" s="20">
-        <v>0</v>
-      </c>
-      <c r="N19" s="20">
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>165</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>16</v>
       </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
         <v>29</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>1</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <v>44</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <v>1</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="20">
         <v>34</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <v>31</v>
       </c>
-      <c r="M20" s="20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="20">
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>282</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>17</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>31</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>39</v>
       </c>
-      <c r="F21" s="20">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
-      <c r="H21" s="20">
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
         <v>27</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <v>34</v>
       </c>
-      <c r="J21" s="20">
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
         <v>34</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="19">
         <v>34</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="19">
         <v>45</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>257</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>1</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>30</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>43</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>3</v>
       </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="20">
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
         <v>48</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19">
         <v>27</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="19">
         <v>36</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="20">
         <v>33</v>
       </c>
-      <c r="L22" s="20">
-        <v>0</v>
-      </c>
-      <c r="M22" s="20">
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
         <v>26</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>20</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>289</v>
       </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
-      <c r="D23" s="20">
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
         <v>40</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>48</v>
       </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
         <v>54</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <v>29</v>
       </c>
-      <c r="I23" s="20">
-        <v>0</v>
-      </c>
-      <c r="J23" s="20">
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
         <v>39</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="20">
         <v>24</v>
       </c>
-      <c r="L23" s="20">
-        <v>0</v>
-      </c>
-      <c r="M23" s="20">
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
         <v>36</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>271</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>41</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>37</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>45</v>
       </c>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
         <v>43</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>43</v>
       </c>
-      <c r="I24" s="20">
-        <v>0</v>
-      </c>
-      <c r="J24" s="20">
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
         <v>34</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="20">
         <v>1</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="19">
         <v>2</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="19">
         <v>25</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>337</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>28</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>36</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>31</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>41</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>31</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>1</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <v>66</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="19">
         <v>43</v>
       </c>
-      <c r="K25" s="21">
-        <v>0</v>
-      </c>
-      <c r="L25" s="20">
+      <c r="K25" s="20">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
         <v>34</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="19">
         <v>26</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>23</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>254</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>19</v>
       </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20">
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
         <v>1</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>34</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>38</v>
       </c>
-      <c r="H26" s="20">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
         <v>44</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <v>42</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="20">
         <v>42</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="19">
         <v>34</v>
       </c>
-      <c r="M26" s="20">
-        <v>0</v>
-      </c>
-      <c r="N26" s="20">
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
+      <c r="N26" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>24</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>218</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>33</v>
       </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="E27" s="20">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
         <v>37</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <v>35</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>29</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <v>42</v>
       </c>
-      <c r="J27" s="20">
-        <v>0</v>
-      </c>
-      <c r="K27" s="21">
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="20">
         <v>7</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="19">
         <v>35</v>
       </c>
-      <c r="M27" s="20">
-        <v>0</v>
-      </c>
-      <c r="N27" s="20">
+      <c r="M27" s="19">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>302</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>23</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>37</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>44</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="19">
         <v>28</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>1</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>40</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>38</v>
       </c>
-      <c r="J28" s="20">
-        <v>0</v>
-      </c>
-      <c r="K28" s="21">
+      <c r="J28" s="19">
+        <v>0</v>
+      </c>
+      <c r="K28" s="20">
         <v>29</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="19">
         <v>30</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="19">
         <v>32</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>282</v>
       </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
         <v>20</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>41</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>42</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>1</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>36</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="19">
         <v>26</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="19">
         <v>46</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <v>25</v>
       </c>
-      <c r="L29" s="20">
-        <v>0</v>
-      </c>
-      <c r="M29" s="20">
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
         <v>31</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N29" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>27</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>264</v>
       </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
         <v>30</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>44</v>
       </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="G30" s="20">
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
         <v>51</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>37</v>
       </c>
-      <c r="I30" s="20">
-        <v>0</v>
-      </c>
-      <c r="J30" s="20">
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
         <v>45</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="20">
         <v>20</v>
       </c>
-      <c r="L30" s="20">
-        <v>0</v>
-      </c>
-      <c r="M30" s="20">
+      <c r="L30" s="19">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19">
         <v>27</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>28</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>291</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>32</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>26</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>45</v>
       </c>
-      <c r="F31" s="20">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20">
+      <c r="F31" s="19">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
         <v>31</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>48</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="19">
         <v>1</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="19">
         <v>35</v>
       </c>
-      <c r="K31" s="21">
-        <v>0</v>
-      </c>
-      <c r="L31" s="20">
+      <c r="K31" s="20">
+        <v>0</v>
+      </c>
+      <c r="L31" s="19">
         <v>47</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="19">
         <v>26</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>243</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>30</v>
       </c>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20">
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
         <v>41</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="19">
         <v>8</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>38</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <v>1</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="19">
         <v>15</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="19">
         <v>27</v>
       </c>
-      <c r="K32" s="21">
-        <v>0</v>
-      </c>
-      <c r="L32" s="20">
+      <c r="K32" s="20">
+        <v>0</v>
+      </c>
+      <c r="L32" s="19">
         <v>46</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="19">
         <v>37</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>30</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>236</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="19">
         <v>28</v>
       </c>
-      <c r="D33" s="20">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
         <v>1</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="19">
         <v>32</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="19">
         <v>53</v>
       </c>
-      <c r="H33" s="20">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
         <v>31</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="19">
         <v>26</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <v>27</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="19">
         <v>38</v>
       </c>
-      <c r="M33" s="20">
-        <v>0</v>
-      </c>
-      <c r="N33" s="20">
+      <c r="M33" s="19">
+        <v>0</v>
+      </c>
+      <c r="N33" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>131</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <v>27</v>
       </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
-        <v>0</v>
-      </c>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="20">
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="19">
         <v>38</v>
       </c>
-      <c r="H34" s="20">
-        <v>0</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
         <v>40</v>
       </c>
-      <c r="J34" s="20">
-        <v>0</v>
-      </c>
-      <c r="K34" s="21">
-        <v>0</v>
-      </c>
-      <c r="L34" s="20">
+      <c r="J34" s="19">
+        <v>0</v>
+      </c>
+      <c r="K34" s="20">
+        <v>0</v>
+      </c>
+      <c r="L34" s="19">
         <v>26</v>
       </c>
-      <c r="M34" s="20">
-        <v>0</v>
-      </c>
-      <c r="N34" s="20">
+      <c r="M34" s="19">
+        <v>0</v>
+      </c>
+      <c r="N34" s="19">
         <v>0</v>
       </c>
     </row>
